--- a/ConsoleApp1/Excel data/ShareSkillData 1.xlsx
+++ b/ConsoleApp1/Excel data/ShareSkillData 1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23003"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59510D9F-DDC0-488F-BFC6-9B76EC68486A}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B60E678A-C7AE-4BA6-9DCF-A3BFA37E3224}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ManageListings" sheetId="4" r:id="rId1"/>
-    <sheet name="SignUp" sheetId="3" r:id="rId2"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId3"/>
-    <sheet name="ShareSkill" sheetId="2" r:id="rId4"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId1"/>
+    <sheet name="ManageListings" sheetId="4" r:id="rId2"/>
+    <sheet name="SignUp" sheetId="3" r:id="rId3"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,17 +33,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Would like to provide selenium training for beginners</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>One-off</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>8:00am</t>
+  </si>
+  <si>
+    <t>5:00pm</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
     <t>Deleteaction</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -81,81 +159,6 @@
   </si>
   <si>
     <t>http://192.168.99.100:5000</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>Startdate</t>
-  </si>
-  <si>
-    <t>Enddate</t>
-  </si>
-  <si>
-    <t>Selectday</t>
-  </si>
-  <si>
-    <t>Starttime</t>
-  </si>
-  <si>
-    <t>Endtime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>Skill-Exchange</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Would like to provide selenium training for beginners</t>
-  </si>
-  <si>
-    <t>Programming &amp; Tech</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>One-off</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>8:00am</t>
-  </si>
-  <si>
-    <t>5:00pm</t>
-  </si>
-  <si>
-    <t>Performance Testing</t>
-  </si>
-  <si>
-    <t>Hidden</t>
   </si>
 </sst>
 </file>
@@ -566,6 +569,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44004</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44032</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF56DF-AA4A-43D9-8D7F-48A178E1D742}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -583,15 +714,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -618,36 +749,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -675,24 +806,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -704,127 +835,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44004</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44032</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>